--- a/Filtered_By_Region/Region VII/Region VII_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS500"/>
+  <dimension ref="A1:AU500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -1001,7 +1021,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -1115,7 +1140,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1229,7 +1259,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1343,7 +1378,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1457,7 +1497,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1571,7 +1616,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1685,7 +1735,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1799,7 +1854,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1913,7 +1973,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2022,7 +2087,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2131,7 +2201,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2240,7 +2315,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2349,7 +2429,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2458,7 +2543,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2567,7 +2657,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2676,7 +2771,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2785,7 +2885,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2894,7 +2999,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -3041,7 +3151,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3155,7 +3270,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -3269,7 +3389,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -3383,7 +3508,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -3497,7 +3627,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -3611,7 +3746,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -3723,7 +3863,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3835,7 +3975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3947,7 +4087,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4059,7 +4199,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4200,7 +4340,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4341,7 +4481,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4482,7 +4622,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4625,7 +4765,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4766,7 +4906,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4907,7 +5047,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5048,7 +5188,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5189,7 +5329,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5330,7 +5470,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5471,7 +5611,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5612,7 +5752,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5753,7 +5893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5896,7 +6036,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6037,7 +6177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6178,7 +6318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6321,7 +6461,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6464,7 +6604,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6603,7 +6743,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6744,7 +6884,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6887,7 +7027,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7030,7 +7170,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7171,7 +7311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7314,7 +7454,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7453,7 +7593,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7592,7 +7732,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7733,7 +7873,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7876,7 +8016,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8017,7 +8157,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8158,7 +8298,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8299,7 +8439,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8440,7 +8580,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8581,7 +8721,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8722,7 +8862,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8861,7 +9001,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8973,7 +9113,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9115,7 +9255,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9232,7 +9372,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9349,7 +9489,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9466,7 +9606,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9606,7 +9746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9723,7 +9863,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9840,7 +9980,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9957,7 +10097,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10074,7 +10214,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10191,7 +10331,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10308,7 +10448,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10425,7 +10565,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10542,7 +10682,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10659,7 +10799,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10776,7 +10916,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10893,7 +11033,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11013,7 +11153,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11130,7 +11270,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11247,7 +11387,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11364,7 +11504,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11481,7 +11621,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11598,7 +11738,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11715,7 +11855,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11832,7 +11972,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11949,7 +12089,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12066,7 +12206,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12183,7 +12323,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12303,7 +12443,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12423,7 +12563,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12540,7 +12680,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12657,7 +12797,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12774,7 +12914,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12891,7 +13031,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13039,7 +13179,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13187,7 +13327,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13335,7 +13475,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13483,7 +13623,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13631,7 +13771,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13779,7 +13919,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13927,7 +14067,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14049,7 +14189,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14171,7 +14311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14293,7 +14433,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14410,7 +14550,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14527,7 +14667,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14649,7 +14789,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14766,7 +14906,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14888,7 +15028,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15005,7 +15145,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15127,7 +15267,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15249,7 +15389,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15371,7 +15511,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15488,7 +15628,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15605,7 +15745,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15722,7 +15862,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15844,7 +15984,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15966,7 +16106,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16083,7 +16223,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16200,7 +16340,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16317,7 +16457,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16434,7 +16574,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16584,7 +16724,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16701,7 +16841,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16818,7 +16958,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16968,7 +17108,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17118,7 +17258,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17235,7 +17375,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17352,7 +17492,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17469,7 +17609,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17586,7 +17726,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17703,7 +17843,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17820,7 +17960,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17937,7 +18077,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18054,7 +18194,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18166,7 +18306,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18278,7 +18418,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18390,7 +18530,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18502,7 +18642,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18614,7 +18754,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18726,7 +18866,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18838,7 +18978,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18950,7 +19090,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19062,7 +19202,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19174,7 +19314,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19286,7 +19426,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19398,7 +19538,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19510,7 +19650,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19622,7 +19762,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19734,7 +19874,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19884,7 +20024,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20034,7 +20174,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20146,7 +20286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20258,7 +20398,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20370,7 +20510,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20482,7 +20622,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20594,7 +20734,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -20701,7 +20841,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -20808,7 +20948,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -20915,7 +21055,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -21027,7 +21167,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -21162,7 +21302,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21297,7 +21437,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21432,7 +21572,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21544,7 +21684,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21656,7 +21796,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21768,7 +21908,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21906,7 +22046,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -22044,7 +22184,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -22182,7 +22322,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -22320,7 +22460,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -22458,7 +22598,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -22596,7 +22736,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -22734,7 +22874,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -22872,7 +23012,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23010,7 +23150,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -23148,7 +23288,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23286,7 +23426,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -23424,7 +23564,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -23562,7 +23702,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23700,7 +23840,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -23838,7 +23978,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23976,7 +24116,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -24114,7 +24254,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24252,7 +24392,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24390,7 +24530,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24528,7 +24668,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24666,7 +24806,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24804,7 +24944,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -24942,7 +25082,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25080,7 +25220,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25218,7 +25358,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25353,7 +25493,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25491,7 +25631,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25629,7 +25769,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25767,7 +25907,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25905,7 +26045,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26043,7 +26183,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26181,7 +26321,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -26319,7 +26459,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26457,7 +26597,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -26595,7 +26735,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -26733,7 +26873,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -26871,7 +27011,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -27009,7 +27149,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27147,7 +27287,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -27285,7 +27425,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27423,7 +27563,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27561,7 +27701,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -27699,7 +27839,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -27837,7 +27977,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27975,7 +28115,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28113,7 +28253,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28251,7 +28391,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28391,7 +28531,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -28531,7 +28671,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -28671,7 +28811,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -28811,7 +28951,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -28951,7 +29091,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -29058,7 +29198,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -29198,7 +29338,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -29338,7 +29478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -29478,7 +29618,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -29585,7 +29725,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -29720,7 +29860,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -29860,7 +30000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -30000,7 +30140,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
@@ -30122,7 +30262,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30259,7 +30399,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30396,7 +30536,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30533,7 +30673,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30670,7 +30810,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30807,7 +30947,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30944,7 +31084,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31081,7 +31221,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31218,7 +31358,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31355,7 +31495,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31492,7 +31632,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31629,7 +31769,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31748,6 +31888,11 @@
       </c>
       <c r="AR245" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT245" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31865,6 +32010,11 @@
       </c>
       <c r="AR246" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31975,7 +32125,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32094,6 +32244,11 @@
       </c>
       <c r="AR248" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT248" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32204,7 +32359,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32323,6 +32478,11 @@
       </c>
       <c r="AR250" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT250" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32433,7 +32593,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32545,7 +32705,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32657,7 +32817,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32776,6 +32936,11 @@
       </c>
       <c r="AR254" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32886,7 +33051,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32998,7 +33163,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33110,7 +33275,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33222,7 +33387,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33334,7 +33499,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR259" t="inlineStr">
+      <c r="AT259" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33481,7 +33646,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR260" t="inlineStr">
+      <c r="AT260" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -33623,7 +33788,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR261" t="inlineStr">
+      <c r="AT261" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -33765,7 +33930,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR262" t="inlineStr">
+      <c r="AT262" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -33907,7 +34072,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -34049,7 +34214,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR264" t="inlineStr">
+      <c r="AT264" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -34196,7 +34361,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -34343,7 +34508,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -34485,7 +34650,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR267" t="inlineStr">
+      <c r="AT267" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34627,7 +34792,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34769,7 +34934,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR269" t="inlineStr">
+      <c r="AT269" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34921,7 +35086,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35073,7 +35238,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR271" t="inlineStr">
+      <c r="AT271" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35225,7 +35390,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35377,7 +35542,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35529,7 +35694,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35681,7 +35846,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35833,7 +35998,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35975,7 +36140,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36127,7 +36292,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36279,7 +36444,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR279" t="inlineStr">
+      <c r="AT279" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36431,7 +36596,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36565,7 +36730,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR281" t="inlineStr">
+      <c r="AT281" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36684,7 +36849,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36818,7 +36983,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36937,7 +37102,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37056,7 +37221,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR285" t="inlineStr">
+      <c r="AT285" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37190,7 +37355,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR286" t="inlineStr">
+      <c r="AT286" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37324,7 +37489,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR287" t="inlineStr">
+      <c r="AT287" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37458,7 +37623,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR288" t="inlineStr">
+      <c r="AT288" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37592,7 +37757,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37726,7 +37891,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37845,7 +38010,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR291" t="inlineStr">
+      <c r="AT291" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37979,7 +38144,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR292" t="inlineStr">
+      <c r="AT292" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38113,7 +38278,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR293" t="inlineStr">
+      <c r="AT293" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38232,7 +38397,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38366,7 +38531,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR295" t="inlineStr">
+      <c r="AT295" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38500,7 +38665,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR296" t="inlineStr">
+      <c r="AT296" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38634,7 +38799,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR297" t="inlineStr">
+      <c r="AT297" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38753,7 +38918,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR298" t="inlineStr">
+      <c r="AT298" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38872,7 +39037,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39006,7 +39171,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR300" t="inlineStr">
+      <c r="AT300" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39115,7 +39280,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39224,7 +39389,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR302" t="inlineStr">
+      <c r="AT302" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39343,7 +39508,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR303" t="inlineStr">
+      <c r="AT303" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39462,7 +39627,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR304" t="inlineStr">
+      <c r="AT304" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39581,7 +39746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR305" t="inlineStr">
+      <c r="AT305" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39695,7 +39860,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR306" t="inlineStr">
+      <c r="AT306" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39809,7 +39974,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR307" t="inlineStr">
+      <c r="AT307" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39923,7 +40088,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR308" t="inlineStr">
+      <c r="AT308" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40037,7 +40202,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR309" t="inlineStr">
+      <c r="AT309" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40151,7 +40316,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR310" t="inlineStr">
+      <c r="AT310" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40265,7 +40430,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR311" t="inlineStr">
+      <c r="AT311" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40379,7 +40544,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR312" t="inlineStr">
+      <c r="AT312" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40493,7 +40658,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR313" t="inlineStr">
+      <c r="AT313" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40607,7 +40772,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR314" t="inlineStr">
+      <c r="AT314" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40721,7 +40886,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR315" t="inlineStr">
+      <c r="AT315" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40835,7 +41000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR316" t="inlineStr">
+      <c r="AT316" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40949,7 +41114,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR317" t="inlineStr">
+      <c r="AT317" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41063,7 +41228,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR318" t="inlineStr">
+      <c r="AT318" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41177,7 +41342,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR319" t="inlineStr">
+      <c r="AT319" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41291,7 +41456,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR320" t="inlineStr">
+      <c r="AT320" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41410,7 +41575,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR321" t="inlineStr">
+      <c r="AT321" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41524,7 +41689,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR322" t="inlineStr">
+      <c r="AT322" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41643,7 +41808,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR323" t="inlineStr">
+      <c r="AT323" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41757,7 +41922,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR324" t="inlineStr">
+      <c r="AT324" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41876,7 +42041,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR325" t="inlineStr">
+      <c r="AT325" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41990,7 +42155,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR326" t="inlineStr">
+      <c r="AT326" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42104,7 +42269,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR327" t="inlineStr">
+      <c r="AT327" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42218,7 +42383,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR328" t="inlineStr">
+      <c r="AT328" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42337,7 +42502,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR329" t="inlineStr">
+      <c r="AT329" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42456,7 +42621,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR330" t="inlineStr">
+      <c r="AT330" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42575,7 +42740,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR331" t="inlineStr">
+      <c r="AT331" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42694,7 +42859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR332" t="inlineStr">
+      <c r="AT332" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42813,7 +42978,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR333" t="inlineStr">
+      <c r="AT333" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42932,7 +43097,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR334" t="inlineStr">
+      <c r="AT334" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43051,7 +43216,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR335" t="inlineStr">
+      <c r="AT335" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43170,7 +43335,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR336" t="inlineStr">
+      <c r="AT336" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43289,7 +43454,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR337" t="inlineStr">
+      <c r="AT337" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43408,7 +43573,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR338" t="inlineStr">
+      <c r="AT338" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43517,7 +43682,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR339" t="inlineStr">
+      <c r="AT339" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43636,7 +43801,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR340" t="inlineStr">
+      <c r="AT340" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43755,7 +43920,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR341" t="inlineStr">
+      <c r="AT341" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43864,7 +44029,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR342" t="inlineStr">
+      <c r="AT342" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43983,7 +44148,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR343" t="inlineStr">
+      <c r="AT343" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44092,7 +44257,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR344" t="inlineStr">
+      <c r="AT344" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44211,7 +44376,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR345" t="inlineStr">
+      <c r="AT345" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44320,7 +44485,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR346" t="inlineStr">
+      <c r="AT346" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44429,7 +44594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR347" t="inlineStr">
+      <c r="AT347" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44548,7 +44713,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR348" t="inlineStr">
+      <c r="AT348" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44657,7 +44822,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR349" t="inlineStr">
+      <c r="AT349" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44776,7 +44941,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR350" t="inlineStr">
+      <c r="AT350" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44895,7 +45060,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR351" t="inlineStr">
+      <c r="AT351" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45053,7 +45218,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR352" t="inlineStr">
+      <c r="AT352" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45211,7 +45376,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR353" t="inlineStr">
+      <c r="AT353" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45364,7 +45529,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR354" t="inlineStr">
+      <c r="AT354" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45522,7 +45687,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR355" t="inlineStr">
+      <c r="AT355" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45680,7 +45845,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR356" t="inlineStr">
+      <c r="AT356" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45794,7 +45959,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR357" t="inlineStr">
+      <c r="AT357" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45903,7 +46068,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR358" t="inlineStr">
+      <c r="AT358" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46012,7 +46177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR359" t="inlineStr">
+      <c r="AT359" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46126,7 +46291,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR360" t="inlineStr">
+      <c r="AT360" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46240,7 +46405,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR361" t="inlineStr">
+      <c r="AT361" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46354,7 +46519,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR362" t="inlineStr">
+      <c r="AT362" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46468,7 +46633,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR363" t="inlineStr">
+      <c r="AT363" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46587,7 +46752,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR364" t="inlineStr">
+      <c r="AT364" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46706,7 +46871,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR365" t="inlineStr">
+      <c r="AT365" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46825,7 +46990,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR366" t="inlineStr">
+      <c r="AT366" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46959,7 +47124,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR367" t="inlineStr">
+      <c r="AT367" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47093,7 +47258,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR368" t="inlineStr">
+      <c r="AT368" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47229,7 +47394,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR369" t="inlineStr">
+      <c r="AT369" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47373,7 +47538,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR370" t="inlineStr">
+      <c r="AT370" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47504,7 +47669,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR371" t="inlineStr">
+      <c r="AT371" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47648,7 +47813,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR372" t="inlineStr">
+      <c r="AT372" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47779,7 +47944,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR373" t="inlineStr">
+      <c r="AT373" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47895,7 +48060,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR374" t="inlineStr">
+      <c r="AT374" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48009,7 +48174,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR375" t="inlineStr">
+      <c r="AT375" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48123,7 +48288,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR376" t="inlineStr">
+      <c r="AT376" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48242,7 +48407,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR377" t="inlineStr">
+      <c r="AT377" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48358,7 +48523,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR378" t="inlineStr">
+      <c r="AT378" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48474,7 +48639,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR379" t="inlineStr">
+      <c r="AT379" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48590,7 +48755,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR380" t="inlineStr">
+      <c r="AT380" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48709,7 +48874,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR381" t="inlineStr">
+      <c r="AT381" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48825,7 +48990,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR382" t="inlineStr">
+      <c r="AT382" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48941,7 +49106,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR383" t="inlineStr">
+      <c r="AT383" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49057,7 +49222,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR384" t="inlineStr">
+      <c r="AT384" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49173,7 +49338,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR385" t="inlineStr">
+      <c r="AT385" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49289,7 +49454,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR386" t="inlineStr">
+      <c r="AT386" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49403,7 +49568,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR387" t="inlineStr">
+      <c r="AT387" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49519,7 +49684,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR388" t="inlineStr">
+      <c r="AT388" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49638,7 +49803,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR389" t="inlineStr">
+      <c r="AT389" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49754,7 +49919,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR390" t="inlineStr">
+      <c r="AT390" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49870,7 +50035,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR391" t="inlineStr">
+      <c r="AT391" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49986,7 +50151,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR392" t="inlineStr">
+      <c r="AT392" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50102,7 +50267,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR393" t="inlineStr">
+      <c r="AT393" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50221,7 +50386,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR394" t="inlineStr">
+      <c r="AT394" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50335,7 +50500,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR395" t="inlineStr">
+      <c r="AT395" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50451,7 +50616,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR396" t="inlineStr">
+      <c r="AT396" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50570,7 +50735,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR397" t="inlineStr">
+      <c r="AT397" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50684,7 +50849,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR398" t="inlineStr">
+      <c r="AT398" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50793,7 +50958,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR399" t="inlineStr">
+      <c r="AT399" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50902,7 +51067,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR400" t="inlineStr">
+      <c r="AT400" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51016,7 +51181,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR401" t="inlineStr">
+      <c r="AT401" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51130,7 +51295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR402" t="inlineStr">
+      <c r="AT402" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51244,7 +51409,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR403" t="inlineStr">
+      <c r="AT403" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51358,7 +51523,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR404" t="inlineStr">
+      <c r="AT404" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51467,7 +51632,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR405" t="inlineStr">
+      <c r="AT405" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51576,7 +51741,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR406" t="inlineStr">
+      <c r="AT406" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51690,7 +51855,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR407" t="inlineStr">
+      <c r="AT407" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51804,7 +51969,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR408" t="inlineStr">
+      <c r="AT408" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51913,7 +52078,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR409" t="inlineStr">
+      <c r="AT409" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52055,7 +52220,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR410" t="inlineStr">
+      <c r="AT410" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52197,7 +52362,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR411" t="inlineStr">
+      <c r="AT411" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52339,7 +52504,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR412" t="inlineStr">
+      <c r="AT412" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52481,7 +52646,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR413" t="inlineStr">
+      <c r="AT413" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52623,7 +52788,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR414" t="inlineStr">
+      <c r="AT414" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52732,7 +52897,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR415" t="inlineStr">
+      <c r="AT415" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52841,7 +53006,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR416" t="inlineStr">
+      <c r="AT416" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52950,7 +53115,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR417" t="inlineStr">
+      <c r="AT417" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53059,7 +53224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR418" t="inlineStr">
+      <c r="AT418" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53168,7 +53333,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR419" t="inlineStr">
+      <c r="AT419" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53277,7 +53442,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR420" t="inlineStr">
+      <c r="AT420" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53386,7 +53551,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR421" t="inlineStr">
+      <c r="AT421" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53495,7 +53660,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR422" t="inlineStr">
+      <c r="AT422" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53604,7 +53769,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR423" t="inlineStr">
+      <c r="AT423" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53713,7 +53878,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR424" t="inlineStr">
+      <c r="AT424" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53832,7 +53997,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR425" t="inlineStr">
+      <c r="AT425" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53951,7 +54116,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR426" t="inlineStr">
+      <c r="AT426" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54060,7 +54225,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR427" t="inlineStr">
+      <c r="AT427" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54174,7 +54339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR428" t="inlineStr">
+      <c r="AT428" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54283,7 +54448,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR429" t="inlineStr">
+      <c r="AT429" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54392,7 +54557,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR430" t="inlineStr">
+      <c r="AT430" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54501,7 +54666,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR431" t="inlineStr">
+      <c r="AT431" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54634,7 +54799,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR432" t="inlineStr">
+      <c r="AT432" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54743,7 +54908,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR433" t="inlineStr">
+      <c r="AT433" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54872,7 +55037,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR434" t="inlineStr">
+      <c r="AT434" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -55006,7 +55171,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR435" t="inlineStr">
+      <c r="AT435" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55140,7 +55305,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR436" t="inlineStr">
+      <c r="AT436" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55274,7 +55439,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR437" t="inlineStr">
+      <c r="AT437" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55408,7 +55573,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR438" t="inlineStr">
+      <c r="AT438" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55522,7 +55687,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR439" t="inlineStr">
+      <c r="AT439" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55656,7 +55821,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR440" t="inlineStr">
+      <c r="AT440" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55785,7 +55950,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR441" t="inlineStr">
+      <c r="AT441" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -55914,7 +56079,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR442" t="inlineStr">
+      <c r="AT442" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -56048,7 +56213,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR443" t="inlineStr">
+      <c r="AT443" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56182,7 +56347,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR444" t="inlineStr">
+      <c r="AT444" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56340,7 +56505,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR445" t="inlineStr">
+      <c r="AT445" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56487,7 +56652,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR446" t="inlineStr">
+      <c r="AT446" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56640,7 +56805,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR447" t="inlineStr">
+      <c r="AT447" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56759,7 +56924,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR448" t="inlineStr">
+      <c r="AT448" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56912,7 +57077,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR449" t="inlineStr">
+      <c r="AT449" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57065,7 +57230,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR450" t="inlineStr">
+      <c r="AT450" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57218,7 +57383,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR451" t="inlineStr">
+      <c r="AT451" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57370,6 +57535,11 @@
       </c>
       <c r="AR452" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT452" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -57521,7 +57691,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR453" t="inlineStr">
+      <c r="AT453" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57674,7 +57844,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR454" t="inlineStr">
+      <c r="AT454" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57832,7 +58002,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR455" t="inlineStr">
+      <c r="AT455" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57951,7 +58121,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR456" t="inlineStr">
+      <c r="AT456" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58096,6 +58266,11 @@
       </c>
       <c r="AR457" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT457" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -58203,7 +58378,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR458" t="inlineStr">
+      <c r="AT458" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58312,7 +58487,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR459" t="inlineStr">
+      <c r="AT459" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58421,7 +58596,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR460" t="inlineStr">
+      <c r="AT460" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58530,7 +58705,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR461" t="inlineStr">
+      <c r="AT461" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58678,7 +58853,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR462" t="inlineStr">
+      <c r="AT462" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58787,7 +58962,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR463" t="inlineStr">
+      <c r="AT463" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58896,7 +59071,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR464" t="inlineStr">
+      <c r="AT464" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59016,7 +59191,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR465" t="inlineStr">
+      <c r="AT465" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59120,7 +59295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR466" t="inlineStr">
+      <c r="AT466" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59224,7 +59399,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR467" t="inlineStr">
+      <c r="AT467" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59328,7 +59503,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR468" t="inlineStr">
+      <c r="AT468" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59452,7 +59627,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR469" t="inlineStr">
+      <c r="AT469" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59576,7 +59751,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR470" t="inlineStr">
+      <c r="AT470" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59680,7 +59855,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR471" t="inlineStr">
+      <c r="AT471" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59806,6 +59981,11 @@
       </c>
       <c r="AR472" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT472" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -59908,7 +60088,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR473" t="inlineStr">
+      <c r="AT473" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60017,7 +60197,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR474" t="inlineStr">
+      <c r="AT474" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60126,7 +60306,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR475" t="inlineStr">
+      <c r="AT475" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60235,7 +60415,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR476" t="inlineStr">
+      <c r="AT476" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60363,6 +60543,11 @@
       </c>
       <c r="AR477" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT477" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -60526,6 +60711,11 @@
       </c>
       <c r="AR478" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT478" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -60689,6 +60879,11 @@
       </c>
       <c r="AR479" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT479" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -60852,6 +61047,11 @@
       </c>
       <c r="AR480" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT480" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -61000,6 +61200,11 @@
       </c>
       <c r="AR481" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT481" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -61148,6 +61353,11 @@
       </c>
       <c r="AR482" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT482" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -61269,7 +61479,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR483" t="inlineStr">
+      <c r="AT483" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -61392,7 +61602,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR484" t="inlineStr">
+      <c r="AT484" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -61542,6 +61752,11 @@
       </c>
       <c r="AR485" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT485" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -61684,6 +61899,11 @@
       </c>
       <c r="AR486" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT486" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -61826,6 +62046,11 @@
       </c>
       <c r="AR487" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT487" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -61968,6 +62193,11 @@
       </c>
       <c r="AR488" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT488" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -62110,6 +62340,11 @@
       </c>
       <c r="AR489" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT489" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -62252,6 +62487,11 @@
       </c>
       <c r="AR490" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT490" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -62417,6 +62657,11 @@
       </c>
       <c r="AR491" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT491" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -62582,6 +62827,11 @@
       </c>
       <c r="AR492" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT492" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -62723,7 +62973,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR493" t="inlineStr">
+      <c r="AT493" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -62878,6 +63128,11 @@
       </c>
       <c r="AR494" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT494" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -62991,7 +63246,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR495" t="inlineStr">
+      <c r="AT495" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -63110,6 +63365,11 @@
       </c>
       <c r="AR496" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT496" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -63261,6 +63521,11 @@
       </c>
       <c r="AR497" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT497" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -63417,6 +63682,11 @@
       </c>
       <c r="AR498" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT498" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -63573,6 +63843,11 @@
       </c>
       <c r="AR499" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT499" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -63727,13 +64002,18 @@
       </c>
       <c r="AR500" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT500" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS500" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU500" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
